--- a/biology/Botanique/Juliet_(rose)/Juliet_(rose).xlsx
+++ b/biology/Botanique/Juliet_(rose)/Juliet_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Juliet' est un cultivar de rosier Pernetiana obtenu en 1910 par le fils du fameux rosiériste anglais  William Paul, William Paul II. Cet hybride de thé est issu de 'Captain Hayward' x 'Soleil d'Or'[1]. Il ne doit pas être confondu avec la rose du même nom obtenue par David Austin en 1999, de couleur pêche[2].
+'Juliet' est un cultivar de rosier Pernetiana obtenu en 1910 par le fils du fameux rosiériste anglais  William Paul, William Paul II. Cet hybride de thé est issu de 'Captain Hayward' x 'Soleil d'Or'. Il ne doit pas être confondu avec la rose du même nom obtenue par David Austin en 1999, de couleur pêche.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose, toujours présente dans le commerce, se caractérise par sa couleur originale : les avers de ses pétales sont d'un beau rose soutenu qui devient rouge au fur et à mesure, tandis que le revers est d'un jaune d'or plutôt foncé[1]. La forme de la fleur est élégante, pleine et globuleuse lorsqu'elle est totalement épanouie. La floraison est abondante à la fin du printemps et peut se répéter à la fin de l'été. Les fleurs exhalent un parfum fort agréable. Elles résistent bien à la pluie.
-Son buisson moyennement vigoureux présente un feuillage touffu et sombre et s'élève à 100 cm[1], voire 120 cm, pour une envergure de 60 cm à 90 cm[3]. Ce rosier résiste à -20°. Il est parfait pour éclairer un massif et pour les fleurs coupées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose, toujours présente dans le commerce, se caractérise par sa couleur originale : les avers de ses pétales sont d'un beau rose soutenu qui devient rouge au fur et à mesure, tandis que le revers est d'un jaune d'or plutôt foncé. La forme de la fleur est élégante, pleine et globuleuse lorsqu'elle est totalement épanouie. La floraison est abondante à la fin du printemps et peut se répéter à la fin de l'été. Les fleurs exhalent un parfum fort agréable. Elles résistent bien à la pluie.
+Son buisson moyennement vigoureux présente un feuillage touffu et sombre et s'élève à 100 cm, voire 120 cm, pour une envergure de 60 cm à 90 cm. Ce rosier résiste à -20°. Il est parfait pour éclairer un massif et pour les fleurs coupées.
 </t>
         </is>
       </c>
